--- a/StudentData/Assessments/Unit5/5.1.6/meltingMetal.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.6/meltingMetal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1.6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD28135-F83B-4010-9820-0C4A9E987570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1A11688B-2A39-4F4A-A605-4E28386F58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AD04D56-78F1-4C28-B813-37045F0982AD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{6AD04D56-78F1-4C28-B813-37045F0982AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +66,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -120,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,199 +472,201 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="1" max="3" width="9.23046875" style="1"/>
+    <col min="4" max="4" width="12.3828125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>500</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>150</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>550</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>160</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>600</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>170</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>650</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>180</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>700</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>190</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>750</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>200</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>800</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>210</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>850</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>220</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>900</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>230</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>11</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>950</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>240</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>29000</v>
       </c>
     </row>
@@ -667,6 +676,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
@@ -678,15 +696,6 @@
     <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,13 +963,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E02136-BD26-455F-B507-B682C48FF242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B514632C-8860-4BA4-99E8-C90378BA164F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B514632C-8860-4BA4-99E8-C90378BA164F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E02136-BD26-455F-B507-B682C48FF242}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D154EA15-E036-4DA4-912A-ECFE348CD1CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D154EA15-E036-4DA4-912A-ECFE348CD1CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>